--- a/input_data/input_data_bidcurve.xlsx
+++ b/input_data/input_data_bidcurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077EBC93-33C0-43DC-B8C3-D3F3D8B55CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5778542-6B3B-4532-BF89-DCCF3AA32D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="11" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="13" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -30,16 +30,17 @@
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="bid_slots" sheetId="27" r:id="rId19"/>
+    <sheet name="bid_slots" sheetId="27" r:id="rId18"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId19"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="314">
   <si>
     <t>node</t>
   </si>
@@ -1384,178 +1385,178 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1571,12 +1572,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
@@ -1601,9 +1602,9 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1624,20 +1625,20 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
@@ -1645,139 +1646,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1798,19 +1799,19 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
@@ -1818,7 +1819,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
@@ -1826,7 +1827,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
@@ -1834,7 +1835,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
@@ -1842,7 +1843,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
@@ -1850,7 +1851,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
@@ -1858,7 +1859,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
@@ -1866,7 +1867,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
@@ -1874,7 +1875,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
@@ -1882,7 +1883,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
@@ -1890,7 +1891,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1898,7 +1899,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1906,7 +1907,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -1914,7 +1915,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -1922,7 +1923,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1930,7 +1931,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1938,7 +1939,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1946,7 +1947,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1954,7 +1955,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1962,7 +1963,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1970,7 +1971,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1978,7 +1979,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1986,7 +1987,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1994,7 +1995,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2017,82 +2018,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2111,12 +2112,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
@@ -2133,7 +2134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
@@ -2142,7 +2143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
@@ -2151,7 +2152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
@@ -2160,7 +2161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
@@ -2169,7 +2170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
@@ -2178,7 +2179,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
@@ -2187,7 +2188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
@@ -2196,7 +2197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
@@ -2205,7 +2206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
@@ -2214,85 +2215,85 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2308,20 +2309,20 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2402,7 +2403,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2413,7 +2414,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2433,160 +2434,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2598,6 +2599,452 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78009B3-2276-4B8E-8066-7570B2DF617B}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>196</v>
+      </c>
+      <c r="D2">
+        <v>202</v>
+      </c>
+      <c r="E2">
+        <v>208</v>
+      </c>
+      <c r="F2">
+        <v>214</v>
+      </c>
+      <c r="G2">
+        <v>220</v>
+      </c>
+      <c r="H2">
+        <v>226</v>
+      </c>
+      <c r="I2">
+        <v>232</v>
+      </c>
+      <c r="J2">
+        <v>238</v>
+      </c>
+      <c r="K2">
+        <v>244</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B3">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>211</v>
+      </c>
+      <c r="F3">
+        <v>218</v>
+      </c>
+      <c r="G3">
+        <v>225</v>
+      </c>
+      <c r="H3">
+        <v>232</v>
+      </c>
+      <c r="I3">
+        <v>239</v>
+      </c>
+      <c r="J3">
+        <v>246</v>
+      </c>
+      <c r="K3">
+        <v>253</v>
+      </c>
+      <c r="L3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>211</v>
+      </c>
+      <c r="F4">
+        <v>218</v>
+      </c>
+      <c r="G4">
+        <v>225</v>
+      </c>
+      <c r="H4">
+        <v>232</v>
+      </c>
+      <c r="I4">
+        <v>239</v>
+      </c>
+      <c r="J4">
+        <v>246</v>
+      </c>
+      <c r="K4">
+        <v>253</v>
+      </c>
+      <c r="L4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.208333333336</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>194</v>
+      </c>
+      <c r="E5">
+        <v>201</v>
+      </c>
+      <c r="F5">
+        <v>208</v>
+      </c>
+      <c r="G5">
+        <v>215</v>
+      </c>
+      <c r="H5">
+        <v>222</v>
+      </c>
+      <c r="I5">
+        <v>229</v>
+      </c>
+      <c r="J5">
+        <v>236</v>
+      </c>
+      <c r="K5">
+        <v>243</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.25</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>187</v>
+      </c>
+      <c r="D6">
+        <v>194</v>
+      </c>
+      <c r="E6">
+        <v>201</v>
+      </c>
+      <c r="F6">
+        <v>208</v>
+      </c>
+      <c r="G6">
+        <v>215</v>
+      </c>
+      <c r="H6">
+        <v>222</v>
+      </c>
+      <c r="I6">
+        <v>229</v>
+      </c>
+      <c r="J6">
+        <v>236</v>
+      </c>
+      <c r="K6">
+        <v>243</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.291666666664</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>186</v>
+      </c>
+      <c r="E7">
+        <v>194</v>
+      </c>
+      <c r="F7">
+        <v>202</v>
+      </c>
+      <c r="G7">
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>218</v>
+      </c>
+      <c r="I7">
+        <v>226</v>
+      </c>
+      <c r="J7">
+        <v>234</v>
+      </c>
+      <c r="K7">
+        <v>242</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.333333333336</v>
+      </c>
+      <c r="B8">
+        <v>170</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>184</v>
+      </c>
+      <c r="E8">
+        <v>191</v>
+      </c>
+      <c r="F8">
+        <v>198</v>
+      </c>
+      <c r="G8">
+        <v>205</v>
+      </c>
+      <c r="H8">
+        <v>212</v>
+      </c>
+      <c r="I8">
+        <v>219</v>
+      </c>
+      <c r="J8">
+        <v>226</v>
+      </c>
+      <c r="K8">
+        <v>233</v>
+      </c>
+      <c r="L8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.375</v>
+      </c>
+      <c r="B9">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>177</v>
+      </c>
+      <c r="D9">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>191</v>
+      </c>
+      <c r="F9">
+        <v>198</v>
+      </c>
+      <c r="G9">
+        <v>205</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>219</v>
+      </c>
+      <c r="J9">
+        <v>226</v>
+      </c>
+      <c r="K9">
+        <v>233</v>
+      </c>
+      <c r="L9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.416666666664</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>177</v>
+      </c>
+      <c r="D10">
+        <v>184</v>
+      </c>
+      <c r="E10">
+        <v>191</v>
+      </c>
+      <c r="F10">
+        <v>198</v>
+      </c>
+      <c r="G10">
+        <v>205</v>
+      </c>
+      <c r="H10">
+        <v>212</v>
+      </c>
+      <c r="I10">
+        <v>219</v>
+      </c>
+      <c r="J10">
+        <v>226</v>
+      </c>
+      <c r="K10">
+        <v>233</v>
+      </c>
+      <c r="L10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.458333333336</v>
+      </c>
+      <c r="B11">
+        <v>160</v>
+      </c>
+      <c r="C11">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>174</v>
+      </c>
+      <c r="E11">
+        <v>181</v>
+      </c>
+      <c r="F11">
+        <v>188</v>
+      </c>
+      <c r="G11">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>202</v>
+      </c>
+      <c r="I11">
+        <v>209</v>
+      </c>
+      <c r="J11">
+        <v>216</v>
+      </c>
+      <c r="K11">
+        <v>223</v>
+      </c>
+      <c r="L11">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
@@ -2605,14 +3052,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2773,7 +3220,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
@@ -2935,7 +3382,7 @@
         <v>231.346451258288</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
@@ -3097,7 +3544,7 @@
         <v>230.78216691687899</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
@@ -3259,7 +3706,7 @@
         <v>235.844176498461</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
@@ -3421,7 +3868,7 @@
         <v>240.05923687940799</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
@@ -3583,7 +4030,7 @@
         <v>242.61575673661699</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
@@ -3745,7 +4192,7 @@
         <v>241.70953129939301</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
@@ -3907,7 +4354,7 @@
         <v>236.73326993448899</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
@@ -4069,7 +4516,7 @@
         <v>223.22249328270701</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
@@ -4231,7 +4678,7 @@
         <v>208.68241700623199</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
@@ -4393,85 +4840,85 @@
         <v>207.05273808799899</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4479,452 +4926,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78009B3-2276-4B8E-8066-7570B2DF617B}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B2">
-        <v>190</v>
-      </c>
-      <c r="C2">
-        <v>196</v>
-      </c>
-      <c r="D2">
-        <v>202</v>
-      </c>
-      <c r="E2">
-        <v>208</v>
-      </c>
-      <c r="F2">
-        <v>214</v>
-      </c>
-      <c r="G2">
-        <v>220</v>
-      </c>
-      <c r="H2">
-        <v>226</v>
-      </c>
-      <c r="I2">
-        <v>232</v>
-      </c>
-      <c r="J2">
-        <v>238</v>
-      </c>
-      <c r="K2">
-        <v>244</v>
-      </c>
-      <c r="L2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B3">
-        <v>190</v>
-      </c>
-      <c r="C3">
-        <v>197</v>
-      </c>
-      <c r="D3">
-        <v>204</v>
-      </c>
-      <c r="E3">
-        <v>211</v>
-      </c>
-      <c r="F3">
-        <v>218</v>
-      </c>
-      <c r="G3">
-        <v>225</v>
-      </c>
-      <c r="H3">
-        <v>232</v>
-      </c>
-      <c r="I3">
-        <v>239</v>
-      </c>
-      <c r="J3">
-        <v>246</v>
-      </c>
-      <c r="K3">
-        <v>253</v>
-      </c>
-      <c r="L3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B4">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>197</v>
-      </c>
-      <c r="D4">
-        <v>204</v>
-      </c>
-      <c r="E4">
-        <v>211</v>
-      </c>
-      <c r="F4">
-        <v>218</v>
-      </c>
-      <c r="G4">
-        <v>225</v>
-      </c>
-      <c r="H4">
-        <v>232</v>
-      </c>
-      <c r="I4">
-        <v>239</v>
-      </c>
-      <c r="J4">
-        <v>246</v>
-      </c>
-      <c r="K4">
-        <v>253</v>
-      </c>
-      <c r="L4">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.208333333336</v>
-      </c>
-      <c r="B5">
-        <v>180</v>
-      </c>
-      <c r="C5">
-        <v>187</v>
-      </c>
-      <c r="D5">
-        <v>194</v>
-      </c>
-      <c r="E5">
-        <v>201</v>
-      </c>
-      <c r="F5">
-        <v>208</v>
-      </c>
-      <c r="G5">
-        <v>215</v>
-      </c>
-      <c r="H5">
-        <v>222</v>
-      </c>
-      <c r="I5">
-        <v>229</v>
-      </c>
-      <c r="J5">
-        <v>236</v>
-      </c>
-      <c r="K5">
-        <v>243</v>
-      </c>
-      <c r="L5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.25</v>
-      </c>
-      <c r="B6">
-        <v>180</v>
-      </c>
-      <c r="C6">
-        <v>187</v>
-      </c>
-      <c r="D6">
-        <v>194</v>
-      </c>
-      <c r="E6">
-        <v>201</v>
-      </c>
-      <c r="F6">
-        <v>208</v>
-      </c>
-      <c r="G6">
-        <v>215</v>
-      </c>
-      <c r="H6">
-        <v>222</v>
-      </c>
-      <c r="I6">
-        <v>229</v>
-      </c>
-      <c r="J6">
-        <v>236</v>
-      </c>
-      <c r="K6">
-        <v>243</v>
-      </c>
-      <c r="L6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.291666666664</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-      <c r="C7">
-        <v>178</v>
-      </c>
-      <c r="D7">
-        <v>186</v>
-      </c>
-      <c r="E7">
-        <v>194</v>
-      </c>
-      <c r="F7">
-        <v>202</v>
-      </c>
-      <c r="G7">
-        <v>210</v>
-      </c>
-      <c r="H7">
-        <v>218</v>
-      </c>
-      <c r="I7">
-        <v>226</v>
-      </c>
-      <c r="J7">
-        <v>234</v>
-      </c>
-      <c r="K7">
-        <v>242</v>
-      </c>
-      <c r="L7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.333333333336</v>
-      </c>
-      <c r="B8">
-        <v>170</v>
-      </c>
-      <c r="C8">
-        <v>177</v>
-      </c>
-      <c r="D8">
-        <v>184</v>
-      </c>
-      <c r="E8">
-        <v>191</v>
-      </c>
-      <c r="F8">
-        <v>198</v>
-      </c>
-      <c r="G8">
-        <v>205</v>
-      </c>
-      <c r="H8">
-        <v>212</v>
-      </c>
-      <c r="I8">
-        <v>219</v>
-      </c>
-      <c r="J8">
-        <v>226</v>
-      </c>
-      <c r="K8">
-        <v>233</v>
-      </c>
-      <c r="L8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.375</v>
-      </c>
-      <c r="B9">
-        <v>170</v>
-      </c>
-      <c r="C9">
-        <v>177</v>
-      </c>
-      <c r="D9">
-        <v>184</v>
-      </c>
-      <c r="E9">
-        <v>191</v>
-      </c>
-      <c r="F9">
-        <v>198</v>
-      </c>
-      <c r="G9">
-        <v>205</v>
-      </c>
-      <c r="H9">
-        <v>212</v>
-      </c>
-      <c r="I9">
-        <v>219</v>
-      </c>
-      <c r="J9">
-        <v>226</v>
-      </c>
-      <c r="K9">
-        <v>233</v>
-      </c>
-      <c r="L9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.416666666664</v>
-      </c>
-      <c r="B10">
-        <v>170</v>
-      </c>
-      <c r="C10">
-        <v>177</v>
-      </c>
-      <c r="D10">
-        <v>184</v>
-      </c>
-      <c r="E10">
-        <v>191</v>
-      </c>
-      <c r="F10">
-        <v>198</v>
-      </c>
-      <c r="G10">
-        <v>205</v>
-      </c>
-      <c r="H10">
-        <v>212</v>
-      </c>
-      <c r="I10">
-        <v>219</v>
-      </c>
-      <c r="J10">
-        <v>226</v>
-      </c>
-      <c r="K10">
-        <v>233</v>
-      </c>
-      <c r="L10">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.458333333336</v>
-      </c>
-      <c r="B11">
-        <v>160</v>
-      </c>
-      <c r="C11">
-        <v>167</v>
-      </c>
-      <c r="D11">
-        <v>174</v>
-      </c>
-      <c r="E11">
-        <v>181</v>
-      </c>
-      <c r="F11">
-        <v>188</v>
-      </c>
-      <c r="G11">
-        <v>195</v>
-      </c>
-      <c r="H11">
-        <v>202</v>
-      </c>
-      <c r="I11">
-        <v>209</v>
-      </c>
-      <c r="J11">
-        <v>216</v>
-      </c>
-      <c r="K11">
-        <v>223</v>
-      </c>
-      <c r="L11">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4937,13 +4938,13 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>312</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -5034,14 +5035,14 @@
       <selection activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
@@ -5676,7 +5677,7 @@
         <v>208.2118061324592</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
@@ -5994,7 +5995,7 @@
         <v>207.70395022519111</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
@@ -6312,7 +6313,7 @@
         <v>212.25975884861489</v>
       </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
@@ -6630,7 +6631,7 @@
         <v>216.0533131914672</v>
       </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
@@ -6948,7 +6949,7 @@
         <v>218.35418106295529</v>
       </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
@@ -7266,7 +7267,7 @@
         <v>217.5385781694537</v>
       </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
@@ -7584,7 +7585,7 @@
         <v>213.05994294104011</v>
       </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
@@ -7902,7 +7903,7 @@
         <v>200.90024395443632</v>
       </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
@@ -8220,7 +8221,7 @@
         <v>187.81417530560879</v>
       </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
@@ -8538,85 +8539,85 @@
         <v>186.3474642791991</v>
       </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -8629,6 +8630,223 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A346A-EF8A-40F9-83B9-EC8F3EBF92E1}">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.208333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.291666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.416666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.458333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8636,12 +8854,12 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -8649,7 +8867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8657,7 +8875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -8670,7 +8888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -8678,9 +8896,9 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -8688,7 +8906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8697,7 +8915,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -8706,7 +8924,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -8715,7 +8933,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -8724,7 +8942,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -8733,7 +8951,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -8742,7 +8960,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8751,7 +8969,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -8760,7 +8978,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -8769,7 +8987,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -8778,7 +8996,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -8787,7 +9005,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -8796,7 +9014,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -8805,7 +9023,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -8814,7 +9032,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -8823,7 +9041,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -8832,7 +9050,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -8841,7 +9059,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -8850,7 +9068,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -8859,7 +9077,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -8868,7 +9086,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -8877,7 +9095,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -8886,7 +9104,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -8895,7 +9113,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -8904,7 +9122,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8913,7 +9131,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -8922,7 +9140,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -8931,7 +9149,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -8940,7 +9158,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -8949,7 +9167,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8958,7 +9176,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -8967,7 +9185,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -8976,7 +9194,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -8985,7 +9203,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -8994,7 +9212,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -9003,7 +9221,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -9012,7 +9230,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -9021,7 +9239,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -9030,7 +9248,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -9039,7 +9257,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -9048,7 +9266,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -9057,7 +9275,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -9066,7 +9284,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -9075,7 +9293,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -9084,7 +9302,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -9093,7 +9311,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -9102,7 +9320,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -9111,7 +9329,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -9120,7 +9338,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -9129,7 +9347,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -9138,7 +9356,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -9147,7 +9365,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -9162,7 +9380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -9170,162 +9388,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9336,7 +9554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -9344,155 +9562,155 @@
       <selection activeCell="B1" sqref="B1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9504,7 +9722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -9512,14 +9730,14 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -9533,7 +9751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -9544,7 +9762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -9552,158 +9770,158 @@
       <selection activeCell="B1" sqref="B1:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9714,7 +9932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -9722,155 +9940,155 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9889,20 +10107,20 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9952,7 +10170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -10002,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10052,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -10066,10 +10284,10 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M8" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -10086,7 +10304,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -10103,7 +10321,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -10119,7 +10337,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -10136,7 +10354,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -10166,22 +10384,22 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -10234,7 +10452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -10287,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -10340,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -10393,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -10446,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -10499,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -10552,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -10605,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -10658,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -10711,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -10764,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -10782,7 +11000,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -10800,7 +11018,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -10818,7 +11036,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -10836,7 +11054,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -10854,7 +11072,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -10886,9 +11104,9 @@
       <selection activeCell="A13" sqref="A13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -10912,9 +11130,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -10971,20 +11189,20 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -11016,7 +11234,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -11048,7 +11266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -11080,7 +11298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -11112,7 +11330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -11144,7 +11362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -11177,7 +11395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -11210,7 +11428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -11243,7 +11461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -11276,7 +11494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -11309,7 +11527,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -11342,7 +11560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -11375,7 +11593,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -11408,7 +11626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -11441,7 +11659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -11474,7 +11692,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -11507,7 +11725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -11540,7 +11758,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -11573,7 +11791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -11606,7 +11824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -11639,7 +11857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -11686,155 +11904,155 @@
       <selection activeCell="N28" sqref="N28:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.375</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.458333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -11853,14 +12071,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>73</v>
       </c>

--- a/input_data/input_data_bidcurve.xlsx
+++ b/input_data/input_data_bidcurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5778542-6B3B-4532-BF89-DCCF3AA32D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60B61E-057B-422B-87D3-A3DB413D814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="13" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="13" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -2600,19 +2600,19 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78009B3-2276-4B8E-8066-7570B2DF617B}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
@@ -3037,6 +3037,90 @@
       </c>
       <c r="L11">
         <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -8633,7 +8717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A346A-EF8A-40F9-83B9-EC8F3EBF92E1}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input_data/input_data_bidcurve.xlsx
+++ b/input_data/input_data_bidcurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60B61E-057B-422B-87D3-A3DB413D814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21EAEC2-D4DD-4AAF-8914-BCC26A55464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="13" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="313">
   <si>
     <t>node</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>state_min</t>
@@ -1566,26 +1563,166 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.208333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.291666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.416666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.458333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78009B3-2276-4B8E-8066-7570B2DF617B}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,37 +2753,37 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>309</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>310</v>
-      </c>
-      <c r="L1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3157,151 +3294,151 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>163</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>166</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>167</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>168</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>169</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>171</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>172</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>173</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>177</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>182</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>187</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>188</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>192</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>193</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>194</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>195</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>196</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>197</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>198</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>201</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -5038,7 +5175,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5046,7 +5183,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5054,7 +5191,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5062,7 +5199,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5070,7 +5207,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5078,7 +5215,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5086,7 +5223,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5094,7 +5231,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5102,7 +5239,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5140,151 +5277,151 @@
         <v>58</v>
       </c>
       <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>204</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>205</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>207</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>208</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>209</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>211</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>212</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>213</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>215</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>216</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>217</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>218</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>219</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>220</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>221</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>229</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>230</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>232</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>233</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>234</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>235</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>236</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>237</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>238</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>241</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>242</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>243</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>244</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>245</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>246</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>247</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>248</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>249</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>250</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>251</v>
       </c>
       <c r="BB1" t="s">
         <v>59</v>
@@ -5296,151 +5433,151 @@
         <v>61</v>
       </c>
       <c r="BE1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF1" t="s">
         <v>252</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>253</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>254</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>255</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>256</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>257</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>258</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>259</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>260</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>261</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>262</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>263</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>264</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>265</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>266</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>267</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>268</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>269</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>270</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>271</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>272</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>273</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>274</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>275</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>276</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>277</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>278</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>279</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>280</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>281</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>282</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>283</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>284</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>285</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>286</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>287</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>288</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>289</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>290</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>291</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>292</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>293</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>294</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>295</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>296</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>297</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>298</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>299</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
@@ -9019,7 +9156,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -9028,7 +9165,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -9037,7 +9174,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -9046,7 +9183,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -9055,7 +9192,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -9064,7 +9201,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -9073,7 +9210,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -9082,7 +9219,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -9091,7 +9228,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -9100,7 +9237,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -9109,7 +9246,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -9118,7 +9255,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -9127,7 +9264,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -9136,7 +9273,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -9145,7 +9282,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -9154,7 +9291,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -9163,7 +9300,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -9172,7 +9309,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -9181,7 +9318,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -9190,7 +9327,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -9199,7 +9336,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -9208,7 +9345,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -9217,7 +9354,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -9226,7 +9363,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -9235,7 +9372,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -9244,7 +9381,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -9253,7 +9390,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -9262,7 +9399,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -9271,7 +9408,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -9280,7 +9417,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -9289,7 +9426,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -9298,7 +9435,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -9307,7 +9444,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -9316,7 +9453,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -9325,7 +9462,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -9334,7 +9471,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -9343,7 +9480,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -9352,7 +9489,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -9361,7 +9498,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -9370,7 +9507,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -9379,7 +9516,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -9388,7 +9525,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -9397,7 +9534,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -9406,7 +9543,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -9415,7 +9552,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -9424,7 +9561,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -9433,7 +9570,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -9442,7 +9579,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -9451,7 +9588,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -10227,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -10242,13 +10379,13 @@
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>55</v>
@@ -10256,7 +10393,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10530,7 +10667,7 @@
         <v>46</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>47</v>
@@ -10538,7 +10675,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10591,7 +10728,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10644,7 +10781,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10697,7 +10834,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10750,7 +10887,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10803,7 +10940,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10856,7 +10993,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10909,7 +11046,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10962,7 +11099,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11015,7 +11152,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11312,21 +11449,21 @@
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -11352,7 +11489,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -11384,13 +11521,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -11416,7 +11553,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -11448,13 +11585,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -11481,7 +11618,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -11514,13 +11651,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -11547,7 +11684,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -11580,13 +11717,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -11613,7 +11750,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -11646,13 +11783,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -11679,7 +11816,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -11712,13 +11849,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -11745,7 +11882,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -11778,13 +11915,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -11811,7 +11948,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -11844,13 +11981,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -11877,7 +12014,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -11910,13 +12047,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -11943,7 +12080,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
@@ -12170,13 +12307,13 @@
         <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_bidcurve.xlsx
+++ b/input_data/input_data_bidcurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21EAEC2-D4DD-4AAF-8914-BCC26A55464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D15E3-26A5-4A79-952E-0C441A1E0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="314">
   <si>
     <t>node</t>
   </si>
@@ -131,9 +131,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>conversion_coeff</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -999,6 +990,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1392,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1565,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1736,17 +1739,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1"/>
     </row>
@@ -1945,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,10 +2259,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,37 +2464,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,19 +2502,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2583,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2750,40 +2753,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>307</v>
-      </c>
-      <c r="J1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3282,163 +3285,163 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>156</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>157</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>158</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>162</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>163</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>166</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>167</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>168</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>169</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>170</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>171</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>177</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>178</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>179</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>183</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>184</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>185</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>186</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>187</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>188</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>189</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>190</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>191</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>192</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>193</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>194</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>195</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>196</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>197</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>198</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -5167,15 +5170,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5183,7 +5186,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5191,7 +5194,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5199,7 +5202,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5207,7 +5210,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5239,7 +5242,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5265,319 +5268,319 @@
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="BC1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" t="s">
-        <v>216</v>
-      </c>
-      <c r="T1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U1" t="s">
-        <v>218</v>
-      </c>
-      <c r="V1" t="s">
-        <v>219</v>
-      </c>
-      <c r="W1" t="s">
-        <v>220</v>
-      </c>
-      <c r="X1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE1" t="s">
         <v>248</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>249</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>250</v>
       </c>
-      <c r="BB1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>251</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>252</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>253</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>254</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>255</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>256</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>257</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>258</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>259</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>260</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>261</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>262</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>263</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>264</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>265</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>266</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>267</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>268</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>269</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>270</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>271</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
         <v>272</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CD1" t="s">
         <v>273</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CE1" t="s">
         <v>274</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>275</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>276</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>277</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>278</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>279</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CK1" t="s">
         <v>280</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CL1" t="s">
         <v>281</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CM1" t="s">
         <v>282</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CN1" t="s">
         <v>283</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CO1" t="s">
         <v>284</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CP1" t="s">
         <v>285</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CQ1" t="s">
         <v>286</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CR1" t="s">
         <v>287</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CS1" t="s">
         <v>288</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CT1" t="s">
         <v>289</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CU1" t="s">
         <v>290</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CV1" t="s">
         <v>291</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CW1" t="s">
         <v>292</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CX1" t="s">
         <v>293</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CY1" t="s">
         <v>294</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CZ1" t="s">
         <v>295</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
         <v>296</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>297</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>298</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
@@ -8863,7 +8866,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -9082,15 +9085,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -9121,15 +9124,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>1/52</f>
@@ -9138,7 +9141,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B53" si="0">1/52</f>
@@ -9147,7 +9150,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -9156,7 +9159,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -9165,7 +9168,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -9174,7 +9177,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -9183,7 +9186,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -9192,7 +9195,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -9201,7 +9204,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -9219,7 +9222,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -9228,7 +9231,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -9237,7 +9240,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -9255,7 +9258,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -9264,7 +9267,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -9273,7 +9276,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -9282,7 +9285,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -9291,7 +9294,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -9300,7 +9303,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -9309,7 +9312,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -9336,7 +9339,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -9345,7 +9348,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -9354,7 +9357,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -9363,7 +9366,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -9372,7 +9375,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -9381,7 +9384,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -9390,7 +9393,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -9408,7 +9411,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -9426,7 +9429,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -9435,7 +9438,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -9444,7 +9447,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -9453,7 +9456,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -9462,7 +9465,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -9471,7 +9474,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -9480,7 +9483,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -9489,7 +9492,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -9498,7 +9501,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -9507,7 +9510,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -9516,7 +9519,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -9525,7 +9528,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -9534,7 +9537,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -9543,7 +9546,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -9552,7 +9555,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -9561,7 +9564,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -9570,7 +9573,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -9579,7 +9582,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -9588,7 +9591,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -9616,7 +9619,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9790,7 +9793,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9960,16 +9963,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -10001,7 +10004,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -10168,7 +10171,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -10325,7 +10328,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10352,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -10364,7 +10367,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -10373,27 +10376,27 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10628,13 +10631,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -10649,33 +10652,33 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10728,7 +10731,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10781,7 +10784,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10834,7 +10837,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10887,7 +10890,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10940,7 +10943,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10993,7 +10996,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11099,7 +11102,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11152,7 +11155,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11321,21 +11324,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -11407,7 +11410,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,13 +11437,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -11449,21 +11452,21 @@
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -11489,7 +11492,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -11521,13 +11524,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -11553,7 +11556,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -11585,13 +11588,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -11651,13 +11654,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -11684,7 +11687,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -11717,13 +11720,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -11750,7 +11753,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -11783,13 +11786,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -11816,7 +11819,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -11849,13 +11852,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -11882,7 +11885,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -11915,13 +11918,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -11948,7 +11951,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -11981,13 +11984,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -12014,7 +12017,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -12047,13 +12050,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -12080,7 +12083,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
@@ -12132,7 +12135,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -12301,19 +12304,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_bidcurve.xlsx
+++ b/input_data/input_data_bidcurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D15E3-26A5-4A79-952E-0C441A1E0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC5023-B392-4144-98B7-824A1D598A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="315">
   <si>
     <t>node</t>
   </si>
@@ -314,9 +314,6 @@
     <t>use_market_bids</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -1002,6 +999,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2470,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2756,37 +2759,37 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>301</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>303</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>304</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>305</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>306</v>
-      </c>
-      <c r="L1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3297,151 +3300,151 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>158</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>159</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>160</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>162</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>163</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>164</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>165</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>166</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>167</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>168</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>170</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>171</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>183</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>184</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>186</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>187</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>188</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>189</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>190</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>191</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>192</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>193</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>194</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>195</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>197</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -5156,10 +5159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,7 +5221,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5242,7 +5245,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>314</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5280,151 +5291,151 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>204</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>205</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>206</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>208</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>213</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>214</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>215</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>216</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>217</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>218</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>219</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>227</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>228</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>229</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>230</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>231</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>232</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>233</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>237</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>238</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>239</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>241</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>242</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>243</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>244</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>245</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>246</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>247</v>
       </c>
       <c r="BB1" t="s">
         <v>57</v>
@@ -5436,151 +5447,151 @@
         <v>59</v>
       </c>
       <c r="BE1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF1" t="s">
         <v>248</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>249</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>250</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>251</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>252</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>253</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>254</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>255</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>256</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>257</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>258</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>259</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>260</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>261</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>262</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>263</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>264</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>265</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>266</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>267</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>268</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>269</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>270</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>271</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>272</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>273</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>274</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>275</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>276</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>277</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>278</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>279</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>280</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>281</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>282</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>283</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>284</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>285</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>286</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>287</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>288</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>289</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>290</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>291</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>292</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>293</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>294</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>295</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
@@ -9159,7 +9170,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -9168,7 +9179,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -9177,7 +9188,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -9186,7 +9197,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -9195,7 +9206,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -9204,7 +9215,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -9213,7 +9224,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -9222,7 +9233,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -9231,7 +9242,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -9240,7 +9251,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -9249,7 +9260,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -9258,7 +9269,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -9267,7 +9278,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -9276,7 +9287,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -9285,7 +9296,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -9294,7 +9305,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -9303,7 +9314,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -9312,7 +9323,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -9321,7 +9332,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -9330,7 +9341,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -9339,7 +9350,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -9348,7 +9359,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -9357,7 +9368,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -9366,7 +9377,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -9375,7 +9386,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -9384,7 +9395,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -9393,7 +9404,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -9402,7 +9413,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -9411,7 +9422,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -9420,7 +9431,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -9429,7 +9440,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -9438,7 +9449,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -9447,7 +9458,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -9456,7 +9467,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -9465,7 +9476,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -9474,7 +9485,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -9483,7 +9494,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -9492,7 +9503,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -9501,7 +9512,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -9510,7 +9521,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -9519,7 +9530,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -9528,7 +9539,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -9537,7 +9548,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -9546,7 +9557,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -9555,7 +9566,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -9564,7 +9575,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -9573,7 +9584,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -9582,7 +9593,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -9591,7 +9602,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -10382,13 +10393,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -10396,7 +10407,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10670,7 +10681,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -10678,7 +10689,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10731,7 +10742,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10784,7 +10795,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10837,7 +10848,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10890,7 +10901,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10943,7 +10954,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10996,7 +11007,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11049,7 +11060,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11102,7 +11113,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11155,7 +11166,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11324,7 +11335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11332,7 +11343,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
@@ -11443,7 +11454,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -11455,18 +11466,18 @@
         <v>78</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -11492,7 +11503,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -11524,13 +11535,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -11556,7 +11567,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -11588,13 +11599,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -11621,7 +11632,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -11654,13 +11665,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -11687,7 +11698,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -11720,13 +11731,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -11753,7 +11764,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -11786,13 +11797,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -11819,7 +11830,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -11852,13 +11863,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -11885,7 +11896,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -11918,13 +11929,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -11951,7 +11962,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -11984,13 +11995,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -12017,7 +12028,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -12050,13 +12061,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -12083,7 +12094,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
